--- a/2022_05_25/NASDAQ/2022_05_25_NASDAQ_MaxArea_Portfolio_250.xlsx
+++ b/2022_05_25/NASDAQ/2022_05_25_NASDAQ_MaxArea_Portfolio_250.xlsx
@@ -1,14 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\investments_f\2022_05_25\NASDAQ\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEADF58-49BD-4C6E-A349-DF1C198BC53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -321,7 +340,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -336,7 +358,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -344,739 +366,1466 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW2"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CW11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5.34765625" customWidth="true"/>
-    <col min="2" max="2" width="5.8046875" customWidth="true"/>
-    <col min="3" max="3" width="5.7109375" customWidth="true"/>
-    <col min="4" max="4" width="4.16796875" customWidth="true"/>
-    <col min="5" max="5" width="4.62109375" customWidth="true"/>
-    <col min="6" max="6" width="5.53125" customWidth="true"/>
-    <col min="7" max="7" width="4.34765625" customWidth="true"/>
-    <col min="8" max="8" width="5.7109375" customWidth="true"/>
-    <col min="9" max="9" width="6.2578125" customWidth="true"/>
-    <col min="10" max="10" width="5.34765625" customWidth="true"/>
-    <col min="11" max="11" width="6.62109375" customWidth="true"/>
-    <col min="12" max="12" width="6.2578125" customWidth="true"/>
-    <col min="13" max="13" width="5.44140625" customWidth="true"/>
-    <col min="14" max="14" width="5.8046875" customWidth="true"/>
-    <col min="15" max="15" width="4.984375" customWidth="true"/>
-    <col min="16" max="16" width="6.07421875" customWidth="true"/>
-    <col min="17" max="17" width="4.53125" customWidth="true"/>
-    <col min="18" max="18" width="5.34765625" customWidth="true"/>
-    <col min="19" max="19" width="4.44140625" customWidth="true"/>
-    <col min="20" max="20" width="5.8046875" customWidth="true"/>
-    <col min="21" max="21" width="5.7109375" customWidth="true"/>
-    <col min="22" max="22" width="5.62109375" customWidth="true"/>
-    <col min="23" max="23" width="7.16796875" customWidth="true"/>
-    <col min="24" max="24" width="5.53125" customWidth="true"/>
-    <col min="25" max="25" width="5.34765625" customWidth="true"/>
-    <col min="26" max="26" width="6.44140625" customWidth="true"/>
-    <col min="27" max="27" width="5.62109375" customWidth="true"/>
-    <col min="28" max="28" width="4.16796875" customWidth="true"/>
-    <col min="29" max="29" width="5.34765625" customWidth="true"/>
-    <col min="30" max="30" width="5.44140625" customWidth="true"/>
-    <col min="31" max="31" width="6.34765625" customWidth="true"/>
-    <col min="32" max="32" width="5.34765625" customWidth="true"/>
-    <col min="33" max="33" width="6.16796875" customWidth="true"/>
-    <col min="34" max="34" width="6.2578125" customWidth="true"/>
-    <col min="35" max="35" width="3.34765625" customWidth="true"/>
-    <col min="36" max="36" width="5.44140625" customWidth="true"/>
-    <col min="37" max="37" width="4.2578125" customWidth="true"/>
-    <col min="38" max="38" width="5.16796875" customWidth="true"/>
-    <col min="39" max="39" width="3.16796875" customWidth="true"/>
-    <col min="40" max="40" width="4.62109375" customWidth="true"/>
-    <col min="41" max="41" width="5.34765625" customWidth="true"/>
-    <col min="42" max="42" width="5.07421875" customWidth="true"/>
-    <col min="43" max="43" width="6.44140625" customWidth="true"/>
-    <col min="44" max="44" width="7.2578125" customWidth="true"/>
-    <col min="45" max="45" width="5.07421875" customWidth="true"/>
-    <col min="46" max="46" width="4.984375" customWidth="true"/>
-    <col min="47" max="47" width="5.53125" customWidth="true"/>
-    <col min="48" max="48" width="5.07421875" customWidth="true"/>
-    <col min="49" max="49" width="5.2578125" customWidth="true"/>
-    <col min="50" max="50" width="4.984375" customWidth="true"/>
-    <col min="51" max="51" width="3.07421875" customWidth="true"/>
-    <col min="52" max="52" width="4.44140625" customWidth="true"/>
-    <col min="53" max="53" width="4.53125" customWidth="true"/>
-    <col min="54" max="54" width="5.2578125" customWidth="true"/>
-    <col min="55" max="55" width="4.89453125" customWidth="true"/>
-    <col min="56" max="56" width="5.16796875" customWidth="true"/>
-    <col min="57" max="57" width="5.34765625" customWidth="true"/>
-    <col min="58" max="58" width="5.16796875" customWidth="true"/>
-    <col min="59" max="59" width="6.2578125" customWidth="true"/>
-    <col min="60" max="60" width="5.89453125" customWidth="true"/>
-    <col min="61" max="61" width="5.2578125" customWidth="true"/>
-    <col min="62" max="62" width="6.07421875" customWidth="true"/>
-    <col min="63" max="63" width="6.44140625" customWidth="true"/>
-    <col min="64" max="64" width="5.89453125" customWidth="true"/>
-    <col min="65" max="65" width="5.7109375" customWidth="true"/>
-    <col min="66" max="66" width="6.2578125" customWidth="true"/>
-    <col min="67" max="67" width="4.16796875" customWidth="true"/>
-    <col min="68" max="68" width="5.16796875" customWidth="true"/>
-    <col min="69" max="69" width="5.34765625" customWidth="true"/>
-    <col min="70" max="70" width="5.984375" customWidth="true"/>
-    <col min="71" max="71" width="4.984375" customWidth="true"/>
-    <col min="72" max="72" width="5.53125" customWidth="true"/>
-    <col min="73" max="73" width="5.7109375" customWidth="true"/>
-    <col min="74" max="74" width="5.44140625" customWidth="true"/>
-    <col min="75" max="75" width="6.44140625" customWidth="true"/>
-    <col min="76" max="76" width="5.34765625" customWidth="true"/>
-    <col min="77" max="77" width="5.53125" customWidth="true"/>
-    <col min="78" max="78" width="4.7109375" customWidth="true"/>
-    <col min="79" max="79" width="4.16796875" customWidth="true"/>
-    <col min="80" max="80" width="4.984375" customWidth="true"/>
-    <col min="81" max="81" width="6.7109375" customWidth="true"/>
-    <col min="82" max="82" width="5.8046875" customWidth="true"/>
-    <col min="83" max="83" width="5.53125" customWidth="true"/>
-    <col min="84" max="84" width="5.44140625" customWidth="true"/>
-    <col min="85" max="85" width="5.62109375" customWidth="true"/>
-    <col min="86" max="86" width="4.2578125" customWidth="true"/>
-    <col min="87" max="87" width="5.2578125" customWidth="true"/>
-    <col min="88" max="88" width="4.89453125" customWidth="true"/>
-    <col min="89" max="89" width="5.8046875" customWidth="true"/>
-    <col min="90" max="90" width="6.07421875" customWidth="true"/>
-    <col min="91" max="91" width="6.07421875" customWidth="true"/>
-    <col min="92" max="92" width="5.07421875" customWidth="true"/>
-    <col min="93" max="93" width="4.44140625" customWidth="true"/>
-    <col min="94" max="94" width="5.2578125" customWidth="true"/>
-    <col min="95" max="95" width="5.53125" customWidth="true"/>
-    <col min="96" max="96" width="5.34765625" customWidth="true"/>
-    <col min="97" max="97" width="5.2578125" customWidth="true"/>
-    <col min="98" max="98" width="6.44140625" customWidth="true"/>
-    <col min="99" max="99" width="3.984375" customWidth="true"/>
-    <col min="100" max="100" width="3.8046875" customWidth="true"/>
-    <col min="101" max="101" width="2.984375" customWidth="true"/>
+    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" customWidth="1"/>
+    <col min="3" max="3" width="5.7265625" customWidth="1"/>
+    <col min="4" max="4" width="4.1796875" customWidth="1"/>
+    <col min="5" max="5" width="4.6328125" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" customWidth="1"/>
+    <col min="7" max="7" width="5.54296875" customWidth="1"/>
+    <col min="8" max="8" width="5.7265625" customWidth="1"/>
+    <col min="9" max="9" width="6.26953125" customWidth="1"/>
+    <col min="10" max="10" width="5.36328125" customWidth="1"/>
+    <col min="11" max="11" width="6.6328125" customWidth="1"/>
+    <col min="12" max="12" width="6.26953125" customWidth="1"/>
+    <col min="13" max="13" width="5.453125" customWidth="1"/>
+    <col min="14" max="14" width="5.81640625" customWidth="1"/>
+    <col min="15" max="15" width="6.26953125" customWidth="1"/>
+    <col min="16" max="16" width="6.08984375" customWidth="1"/>
+    <col min="17" max="17" width="5.81640625" customWidth="1"/>
+    <col min="18" max="18" width="5.36328125" customWidth="1"/>
+    <col min="19" max="19" width="4.453125" customWidth="1"/>
+    <col min="20" max="20" width="5.81640625" customWidth="1"/>
+    <col min="21" max="21" width="5.7265625" customWidth="1"/>
+    <col min="22" max="22" width="5.6328125" customWidth="1"/>
+    <col min="23" max="23" width="7.1796875" customWidth="1"/>
+    <col min="24" max="24" width="5.54296875" customWidth="1"/>
+    <col min="25" max="25" width="5.36328125" customWidth="1"/>
+    <col min="26" max="26" width="6.453125" customWidth="1"/>
+    <col min="27" max="27" width="5.6328125" customWidth="1"/>
+    <col min="28" max="28" width="4.1796875" customWidth="1"/>
+    <col min="29" max="29" width="5.36328125" customWidth="1"/>
+    <col min="30" max="30" width="5.453125" customWidth="1"/>
+    <col min="31" max="31" width="6.36328125" customWidth="1"/>
+    <col min="32" max="32" width="5.36328125" customWidth="1"/>
+    <col min="33" max="33" width="6.1796875" customWidth="1"/>
+    <col min="34" max="34" width="6.26953125" customWidth="1"/>
+    <col min="35" max="35" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.453125" customWidth="1"/>
+    <col min="37" max="37" width="5.08984375" customWidth="1"/>
+    <col min="38" max="38" width="5.1796875" customWidth="1"/>
+    <col min="39" max="39" width="3.1796875" customWidth="1"/>
+    <col min="40" max="40" width="4.6328125" customWidth="1"/>
+    <col min="41" max="41" width="5.36328125" customWidth="1"/>
+    <col min="42" max="42" width="5.08984375" customWidth="1"/>
+    <col min="43" max="43" width="6.453125" customWidth="1"/>
+    <col min="44" max="44" width="7.26953125" customWidth="1"/>
+    <col min="45" max="45" width="5.08984375" customWidth="1"/>
+    <col min="46" max="46" width="5" customWidth="1"/>
+    <col min="47" max="47" width="5.54296875" customWidth="1"/>
+    <col min="48" max="48" width="5.08984375" customWidth="1"/>
+    <col min="49" max="49" width="5.26953125" customWidth="1"/>
+    <col min="50" max="50" width="5" customWidth="1"/>
+    <col min="51" max="51" width="3.08984375" customWidth="1"/>
+    <col min="52" max="52" width="4.453125" customWidth="1"/>
+    <col min="53" max="53" width="4.54296875" customWidth="1"/>
+    <col min="54" max="54" width="5.26953125" customWidth="1"/>
+    <col min="55" max="55" width="4.90625" customWidth="1"/>
+    <col min="56" max="56" width="5.1796875" customWidth="1"/>
+    <col min="57" max="57" width="5.36328125" customWidth="1"/>
+    <col min="58" max="58" width="5.1796875" customWidth="1"/>
+    <col min="59" max="59" width="6.26953125" customWidth="1"/>
+    <col min="60" max="60" width="5.90625" customWidth="1"/>
+    <col min="61" max="61" width="5.26953125" customWidth="1"/>
+    <col min="62" max="62" width="6.08984375" customWidth="1"/>
+    <col min="63" max="63" width="6.453125" customWidth="1"/>
+    <col min="64" max="64" width="5.90625" customWidth="1"/>
+    <col min="65" max="65" width="5.7265625" customWidth="1"/>
+    <col min="66" max="66" width="6.26953125" customWidth="1"/>
+    <col min="67" max="67" width="4.1796875" customWidth="1"/>
+    <col min="68" max="68" width="5.1796875" customWidth="1"/>
+    <col min="69" max="69" width="5.36328125" customWidth="1"/>
+    <col min="70" max="70" width="6" customWidth="1"/>
+    <col min="71" max="71" width="5" customWidth="1"/>
+    <col min="72" max="72" width="5.54296875" customWidth="1"/>
+    <col min="73" max="73" width="5.7265625" customWidth="1"/>
+    <col min="74" max="74" width="5.453125" customWidth="1"/>
+    <col min="75" max="75" width="6.453125" customWidth="1"/>
+    <col min="76" max="76" width="5.36328125" customWidth="1"/>
+    <col min="77" max="77" width="5.54296875" customWidth="1"/>
+    <col min="78" max="78" width="4.7265625" customWidth="1"/>
+    <col min="79" max="79" width="6.36328125" customWidth="1"/>
+    <col min="80" max="80" width="5" customWidth="1"/>
+    <col min="81" max="81" width="6.7265625" customWidth="1"/>
+    <col min="82" max="82" width="5.81640625" customWidth="1"/>
+    <col min="83" max="83" width="5.54296875" customWidth="1"/>
+    <col min="84" max="84" width="5.453125" customWidth="1"/>
+    <col min="85" max="86" width="5.6328125" customWidth="1"/>
+    <col min="87" max="87" width="5.26953125" customWidth="1"/>
+    <col min="88" max="88" width="4.90625" customWidth="1"/>
+    <col min="89" max="89" width="5.81640625" customWidth="1"/>
+    <col min="90" max="91" width="6.08984375" customWidth="1"/>
+    <col min="92" max="92" width="5.08984375" customWidth="1"/>
+    <col min="93" max="93" width="4.453125" customWidth="1"/>
+    <col min="94" max="94" width="5.26953125" customWidth="1"/>
+    <col min="95" max="95" width="5.54296875" customWidth="1"/>
+    <col min="96" max="96" width="5.36328125" customWidth="1"/>
+    <col min="97" max="97" width="5.26953125" customWidth="1"/>
+    <col min="98" max="98" width="6.453125" customWidth="1"/>
+    <col min="99" max="99" width="4" customWidth="1"/>
+    <col min="100" max="100" width="3.81640625" customWidth="1"/>
+    <col min="101" max="101" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="1:101">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AO1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="0" t="s">
+      <c r="AR1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="0" t="s">
+      <c r="AS1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AT1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="0" t="s">
+      <c r="AU1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="0" t="s">
+      <c r="AV1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="0" t="s">
+      <c r="AW1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="0" t="s">
+      <c r="AX1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="0" t="s">
+      <c r="AY1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="0" t="s">
+      <c r="AZ1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="0" t="s">
+      <c r="BA1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="0" t="s">
+      <c r="BB1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="0" t="s">
+      <c r="BC1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="0" t="s">
+      <c r="BD1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="0" t="s">
+      <c r="BE1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="0" t="s">
+      <c r="BF1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="0" t="s">
+      <c r="BG1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="0" t="s">
+      <c r="BH1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="0" t="s">
+      <c r="BI1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="0" t="s">
+      <c r="BJ1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="0" t="s">
+      <c r="BK1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="0" t="s">
+      <c r="BL1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="0" t="s">
+      <c r="BM1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="0" t="s">
+      <c r="BN1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="0" t="s">
+      <c r="BO1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="0" t="s">
+      <c r="BP1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="0" t="s">
+      <c r="BQ1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="0" t="s">
+      <c r="BR1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="0" t="s">
+      <c r="BS1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="0" t="s">
+      <c r="BT1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="0" t="s">
+      <c r="BU1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="0" t="s">
+      <c r="BV1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="0" t="s">
+      <c r="BW1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="0" t="s">
+      <c r="BX1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="0" t="s">
+      <c r="BY1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="0" t="s">
+      <c r="BZ1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="0" t="s">
+      <c r="CA1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="0" t="s">
+      <c r="CB1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="0" t="s">
+      <c r="CC1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="0" t="s">
+      <c r="CD1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="0" t="s">
+      <c r="CE1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="0" t="s">
+      <c r="CF1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="0" t="s">
+      <c r="CG1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="0" t="s">
+      <c r="CH1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="0" t="s">
+      <c r="CI1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="0" t="s">
+      <c r="CJ1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="0" t="s">
+      <c r="CK1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="0" t="s">
+      <c r="CL1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="0" t="s">
+      <c r="CM1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="0" t="s">
+      <c r="CN1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="0" t="s">
+      <c r="CO1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="0" t="s">
+      <c r="CP1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="0" t="s">
+      <c r="CQ1" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="0" t="s">
+      <c r="CR1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="0" t="s">
+      <c r="CS1" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="0" t="s">
+      <c r="CT1" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="0" t="s">
+      <c r="CU1" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="0" t="s">
+      <c r="CV1" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="0" t="s">
+      <c r="CW1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0">
-        <v>0</v>
-      </c>
-      <c r="E2" s="0">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0">
-        <v>0</v>
-      </c>
-      <c r="G2" s="0">
+    <row r="2" spans="1:101">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>24.037390833470891</v>
       </c>
-      <c r="H2" s="0">
-        <v>0</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0">
-        <v>0</v>
-      </c>
-      <c r="K2" s="0">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>1.6284737522249653</v>
       </c>
-      <c r="L2" s="0">
-        <v>0</v>
-      </c>
-      <c r="M2" s="0">
-        <v>0</v>
-      </c>
-      <c r="N2" s="0">
-        <v>0</v>
-      </c>
-      <c r="O2" s="0">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>3.452702622024487</v>
       </c>
-      <c r="P2" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="0">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>23.491023273045009</v>
       </c>
-      <c r="R2" s="0">
-        <v>0</v>
-      </c>
-      <c r="S2" s="0">
-        <v>0</v>
-      </c>
-      <c r="T2" s="0">
-        <v>0</v>
-      </c>
-      <c r="U2" s="0">
-        <v>0</v>
-      </c>
-      <c r="V2" s="0">
-        <v>0</v>
-      </c>
-      <c r="W2" s="0">
-        <v>0</v>
-      </c>
-      <c r="X2" s="0">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="0">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="0">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
         <v>5.5785561575121418</v>
       </c>
-      <c r="AG2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="0">
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
         <v>4.6404675336358361</v>
       </c>
-      <c r="AJ2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="0">
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
         <v>102.61681460916297</v>
       </c>
-      <c r="AL2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="0">
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
         <v>10.608248789637951</v>
       </c>
-      <c r="AQ2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="0">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="0">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="0">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="0">
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
         <v>1.8220000632792253</v>
       </c>
-      <c r="BD2" s="0">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="0">
-        <v>0</v>
-      </c>
-      <c r="BF2" s="0">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="0">
-        <v>0</v>
-      </c>
-      <c r="BH2" s="0">
-        <v>0</v>
-      </c>
-      <c r="BI2" s="0">
-        <v>0</v>
-      </c>
-      <c r="BJ2" s="0">
-        <v>0</v>
-      </c>
-      <c r="BK2" s="0">
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
         <v>0.74899787465078016</v>
       </c>
-      <c r="BL2" s="0">
-        <v>0</v>
-      </c>
-      <c r="BM2" s="0">
-        <v>0</v>
-      </c>
-      <c r="BN2" s="0">
-        <v>0</v>
-      </c>
-      <c r="BO2" s="0">
-        <v>0</v>
-      </c>
-      <c r="BP2" s="0">
-        <v>0</v>
-      </c>
-      <c r="BQ2" s="0">
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
         <v>3.2522329837717399</v>
       </c>
-      <c r="BR2" s="0">
-        <v>0</v>
-      </c>
-      <c r="BS2" s="0">
-        <v>0</v>
-      </c>
-      <c r="BT2" s="0">
-        <v>0</v>
-      </c>
-      <c r="BU2" s="0">
-        <v>0</v>
-      </c>
-      <c r="BV2" s="0">
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
         <v>2.971877377386031</v>
       </c>
-      <c r="BW2" s="0">
+      <c r="BW2">
         <v>8.8268977242948132</v>
       </c>
-      <c r="BX2" s="0">
-        <v>0</v>
-      </c>
-      <c r="BY2" s="0">
-        <v>0</v>
-      </c>
-      <c r="BZ2" s="0">
-        <v>0</v>
-      </c>
-      <c r="CA2" s="0">
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
         <v>3.7541121654114709</v>
       </c>
-      <c r="CB2" s="0">
-        <v>0</v>
-      </c>
-      <c r="CC2" s="0">
-        <v>0</v>
-      </c>
-      <c r="CD2" s="0">
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
         <v>15.135453428917032</v>
       </c>
-      <c r="CE2" s="0">
-        <v>0</v>
-      </c>
-      <c r="CF2" s="0">
-        <v>0</v>
-      </c>
-      <c r="CG2" s="0">
-        <v>0</v>
-      </c>
-      <c r="CH2" s="0">
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
         <v>1.5751653124615053</v>
       </c>
-      <c r="CI2" s="0">
-        <v>0</v>
-      </c>
-      <c r="CJ2" s="0">
-        <v>0</v>
-      </c>
-      <c r="CK2" s="0">
-        <v>0</v>
-      </c>
-      <c r="CL2" s="0">
-        <v>0</v>
-      </c>
-      <c r="CM2" s="0">
-        <v>0</v>
-      </c>
-      <c r="CN2" s="0">
-        <v>0</v>
-      </c>
-      <c r="CO2" s="0">
-        <v>0</v>
-      </c>
-      <c r="CP2" s="0">
-        <v>0</v>
-      </c>
-      <c r="CQ2" s="0">
-        <v>0</v>
-      </c>
-      <c r="CR2" s="0">
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
         <v>14.879585499113206</v>
       </c>
-      <c r="CS2" s="0">
-        <v>0</v>
-      </c>
-      <c r="CT2" s="0">
-        <v>0</v>
-      </c>
-      <c r="CU2" s="0">
-        <v>0</v>
-      </c>
-      <c r="CV2" s="0">
-        <v>0</v>
-      </c>
-      <c r="CW2" s="0">
-        <v>0</v>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:101">
+      <c r="A3">
+        <f>A2/229.02</f>
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:BM3" si="0">B2/229.02</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10495760559545407</v>
+      </c>
+      <c r="H3">
+        <f>H2/229.02</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" si="0"/>
+        <v>7.1106180780061354E-3</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5075987346190232E-2</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1025719294081085</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="0"/>
+        <v>2.4358379868623447E-2</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="0"/>
+        <v>2.0262280733716862E-2</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" si="0"/>
+        <v>0.44806922805502997</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" si="0"/>
+        <v>4.6320185091424111E-2</v>
+      </c>
+      <c r="AQ3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <f t="shared" si="0"/>
+        <v>7.9556373385696669E-3</v>
+      </c>
+      <c r="BD3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <f t="shared" si="0"/>
+        <v>3.2704474484795219E-3</v>
+      </c>
+      <c r="BL3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <f t="shared" ref="BN3:CW3" si="1">BN2/229.02</f>
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <f t="shared" si="1"/>
+        <v>1.4200650527341454E-2</v>
+      </c>
+      <c r="BR3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <f t="shared" si="1"/>
+        <v>1.2976497150406214E-2</v>
+      </c>
+      <c r="BW3">
+        <f t="shared" si="1"/>
+        <v>3.854203879265921E-2</v>
+      </c>
+      <c r="BX3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <f t="shared" si="1"/>
+        <v>1.6392071283780764E-2</v>
+      </c>
+      <c r="CB3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <f t="shared" si="1"/>
+        <v>6.6087911225731516E-2</v>
+      </c>
+      <c r="CE3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <f t="shared" si="1"/>
+        <v>6.8778504604903729E-3</v>
+      </c>
+      <c r="CI3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <f t="shared" si="1"/>
+        <v>6.497068159598815E-2</v>
+      </c>
+      <c r="CS3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:101">
+      <c r="A4">
+        <f>SUM(2:2)</f>
+        <v>229.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:101">
+      <c r="F11">
+        <f>0.1+0.007+0.015+0.1+0.02+0.02+0.45+0.05+0.03+0.01+0.01+0.039+0.016+0.066+0.007+0.06</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>